--- a/data/trans_orig/P36B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>7612</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3024</v>
+        <v>3114</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14730</v>
+        <v>15120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01096760160330254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004357163309440198</v>
+        <v>0.004487486949209861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0212237929969017</v>
+        <v>0.02178668648911878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>5183</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11883</v>
+        <v>12057</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007529870031765163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002493051083767842</v>
+        <v>0.002504417319582126</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01726360507139593</v>
+        <v>0.01751540063016676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -785,19 +785,19 @@
         <v>12795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7343</v>
+        <v>7305</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22194</v>
+        <v>21672</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009255774970577902</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005311807004421078</v>
+        <v>0.005284119502168155</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01605499792673042</v>
+        <v>0.01567760585008798</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>65934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51814</v>
+        <v>51217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82237</v>
+        <v>81382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09500363170699051</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07465818194783487</v>
+        <v>0.07379911118048441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1184951066623387</v>
+        <v>0.1172632208530841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -835,19 +835,19 @@
         <v>54204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41364</v>
+        <v>41377</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70577</v>
+        <v>69162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07874434148061679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06009164267486484</v>
+        <v>0.06011052792852139</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1025310218382674</v>
+        <v>0.1004742651557759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -856,19 +856,19 @@
         <v>120137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>100189</v>
+        <v>101260</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142792</v>
+        <v>142901</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08690727937129644</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07247626884373078</v>
+        <v>0.07325142509536597</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1032956749295428</v>
+        <v>0.1033745158190545</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>379486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>352954</v>
+        <v>354536</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>404158</v>
+        <v>404148</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5468009399678004</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5085698674979621</v>
+        <v>0.5108497509986653</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5823506829985086</v>
+        <v>0.5823356172565979</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>425</v>
@@ -906,19 +906,19 @@
         <v>418506</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>392631</v>
+        <v>394667</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>446071</v>
+        <v>444227</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6079831617671453</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5703939586606857</v>
+        <v>0.5733511765573494</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6480277597827608</v>
+        <v>0.645349658738498</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>800</v>
@@ -927,19 +927,19 @@
         <v>797992</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>759317</v>
+        <v>759882</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>831271</v>
+        <v>835306</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5772667731912323</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.549288954547852</v>
+        <v>0.5496977247062054</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.601340841146535</v>
+        <v>0.6042593757728657</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>225541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200074</v>
+        <v>202810</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>250072</v>
+        <v>249329</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3249810313202759</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.288286196278672</v>
+        <v>0.2922280891908144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3603282217081676</v>
+        <v>0.3592575843274215</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>200</v>
@@ -977,19 +977,19 @@
         <v>197708</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>175430</v>
+        <v>173841</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221035</v>
+        <v>221443</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.287219681387381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2548554639084141</v>
+        <v>0.2525469637700906</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3211075844068844</v>
+        <v>0.321701152559893</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>420</v>
@@ -998,19 +998,19 @@
         <v>423249</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>392008</v>
+        <v>387664</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>459324</v>
+        <v>457032</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3061776770857694</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2835781833101457</v>
+        <v>0.2804360678097539</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3322746953120653</v>
+        <v>0.3306161732128668</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>15440</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9398</v>
+        <v>8829</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27089</v>
+        <v>25289</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02224679540163058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01354122977698572</v>
+        <v>0.01272175157616121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03903216440395682</v>
+        <v>0.03643879703123377</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1048,19 +1048,19 @@
         <v>12750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6878</v>
+        <v>7199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21970</v>
+        <v>21490</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01852294533309177</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00999165868564204</v>
+        <v>0.01045800317614174</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0319174705663999</v>
+        <v>0.03121987552033741</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1069,19 +1069,19 @@
         <v>28190</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17907</v>
+        <v>18270</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40738</v>
+        <v>40852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02039249538112391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01295364292767799</v>
+        <v>0.01321645610296357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02947002511117403</v>
+        <v>0.02955260622133046</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>9236</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4275</v>
+        <v>4908</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16577</v>
+        <v>16957</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009611434512550185</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004448306610773627</v>
+        <v>0.005107818145153416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01725062963098361</v>
+        <v>0.01764626816360101</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1194,19 +1194,19 @@
         <v>11012</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5642</v>
+        <v>5237</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19243</v>
+        <v>18999</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01139576529375198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005838988912170505</v>
+        <v>0.005419201430100704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01991358930687762</v>
+        <v>0.01966130673860268</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1215,19 +1215,19 @@
         <v>20248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12276</v>
+        <v>12504</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32463</v>
+        <v>32433</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0105061030040354</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006369476224105578</v>
+        <v>0.006487992350603812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0168437693219672</v>
+        <v>0.01682838252065298</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>73081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>58003</v>
+        <v>59217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93854</v>
+        <v>92948</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07605205572089491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06036078071618173</v>
+        <v>0.06162505697048156</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09766942898125937</v>
+        <v>0.09672687902879046</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -1265,19 +1265,19 @@
         <v>55809</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41844</v>
+        <v>42917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>71285</v>
+        <v>75125</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05775276050045095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04330133277812924</v>
+        <v>0.04441214733873066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07376771551579867</v>
+        <v>0.07774185678784781</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>122</v>
@@ -1286,19 +1286,19 @@
         <v>128890</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>108081</v>
+        <v>106891</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151751</v>
+        <v>153270</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06687673743204581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05607972715589824</v>
+        <v>0.05546244338301685</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07873896650931897</v>
+        <v>0.0795269071036834</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>498821</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>466471</v>
+        <v>466418</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>530633</v>
+        <v>527795</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5191010685808104</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4854360556869646</v>
+        <v>0.4853810832907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5522065771414889</v>
+        <v>0.549252956164315</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>515</v>
@@ -1336,19 +1336,19 @@
         <v>549302</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>514440</v>
+        <v>517263</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>580778</v>
+        <v>578390</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5684366364815443</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5323593894082675</v>
+        <v>0.5352806143596472</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6010080733728842</v>
+        <v>0.5985369272945721</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>974</v>
@@ -1357,19 +1357,19 @@
         <v>1048123</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>999386</v>
+        <v>1004064</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1088476</v>
+        <v>1093114</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.543838061617823</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5185496147788604</v>
+        <v>0.5209772136035851</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5647759549904428</v>
+        <v>0.5671823763844834</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>357696</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>328304</v>
+        <v>326489</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>390890</v>
+        <v>390015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3722380986288245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3416518282668724</v>
+        <v>0.339762756492386</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4067817059424828</v>
+        <v>0.4058715095663987</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>300</v>
@@ -1407,19 +1407,19 @@
         <v>320635</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>289807</v>
+        <v>292212</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>352358</v>
+        <v>353941</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3318033419713426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2999024009849803</v>
+        <v>0.3023907458897241</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3646316506104602</v>
+        <v>0.366269935800844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>639</v>
@@ -1428,19 +1428,19 @@
         <v>678330</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>640602</v>
+        <v>637374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>726126</v>
+        <v>723373</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3519639974792855</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3323882285833407</v>
+        <v>0.3307129631162967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3767640524159767</v>
+        <v>0.3753355072723838</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>22099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13845</v>
+        <v>13493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33663</v>
+        <v>34607</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02299734255691999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01440833827091656</v>
+        <v>0.01404145152676032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03503161169329144</v>
+        <v>0.03601356954507692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -1478,19 +1478,19 @@
         <v>29581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19713</v>
+        <v>20194</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41174</v>
+        <v>41951</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03061149575291014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02039948498812776</v>
+        <v>0.02089757077104282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04260834899701645</v>
+        <v>0.04341249043347139</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1499,19 +1499,19 @@
         <v>51680</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38971</v>
+        <v>38812</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>67565</v>
+        <v>68497</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02681510046681027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02022068533382245</v>
+        <v>0.02013835052370335</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03505733573635287</v>
+        <v>0.03554081081536813</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>11142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5428</v>
+        <v>5571</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19955</v>
+        <v>20705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01642127301540113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00799985319451909</v>
+        <v>0.008210362395064712</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02941073286874205</v>
+        <v>0.03051613575363774</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1624,19 +1624,19 @@
         <v>12365</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6812</v>
+        <v>6773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21276</v>
+        <v>20434</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01808110257508262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009960742158226345</v>
+        <v>0.009904033144287675</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.031111776782789</v>
+        <v>0.0298806660313529</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1645,19 +1645,19 @@
         <v>23507</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15471</v>
+        <v>14470</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34855</v>
+        <v>34643</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01725443601070844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01135609611309904</v>
+        <v>0.01062169698097713</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02558447011651152</v>
+        <v>0.02542872245739471</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>55705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43291</v>
+        <v>42677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73200</v>
+        <v>72279</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08209917408852645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0638031683867125</v>
+        <v>0.06289880154253272</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1078831782283987</v>
+        <v>0.1065263338868966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1695,19 +1695,19 @@
         <v>47187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35198</v>
+        <v>36145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61803</v>
+        <v>62027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06900263421763106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05147125221893005</v>
+        <v>0.05285611877400561</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09037673165341079</v>
+        <v>0.09070387740959951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>105</v>
@@ -1716,19 +1716,19 @@
         <v>102892</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82101</v>
+        <v>86035</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>121912</v>
+        <v>124724</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07552527478461804</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06026407073313538</v>
+        <v>0.06315178146035123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08948619650868818</v>
+        <v>0.0915503390608806</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>301054</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>274357</v>
+        <v>273404</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>329090</v>
+        <v>326066</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4436990043358611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4043526838515154</v>
+        <v>0.4029478491206384</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4850196290000511</v>
+        <v>0.4805630103394942</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>332</v>
@@ -1766,19 +1766,19 @@
         <v>327533</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>302469</v>
+        <v>303127</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>352236</v>
+        <v>352608</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4789612366959013</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4423091219516249</v>
+        <v>0.4432718990961711</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5150853350567807</v>
+        <v>0.5156288429788922</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>618</v>
@@ -1787,19 +1787,19 @@
         <v>628587</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>591261</v>
+        <v>591492</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>665894</v>
+        <v>667229</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.461399127196639</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4340004413035315</v>
+        <v>0.4341704759277157</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4887833609105762</v>
+        <v>0.4897631492964705</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>299435</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>271614</v>
+        <v>274301</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>326510</v>
+        <v>325674</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4413128192764814</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4003106124897252</v>
+        <v>0.4042706873316838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4812170072382543</v>
+        <v>0.47998482851435</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>282</v>
@@ -1837,19 +1837,19 @@
         <v>278476</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251652</v>
+        <v>253993</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>301453</v>
+        <v>303575</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4072238805331373</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3679976953781718</v>
+        <v>0.3714205902227884</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4408226478546061</v>
+        <v>0.44392565852627</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>561</v>
@@ -1858,19 +1858,19 @@
         <v>577911</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>540891</v>
+        <v>541076</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>617252</v>
+        <v>613194</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4242016393094841</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3970278777446775</v>
+        <v>0.3971636421794781</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4530789476425526</v>
+        <v>0.4501000400571873</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>11174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5630</v>
+        <v>5987</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20324</v>
+        <v>19695</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01646772928372988</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008297839249148212</v>
+        <v>0.008824044877495401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02995415423644734</v>
+        <v>0.0290265292215884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1908,19 +1908,19 @@
         <v>18280</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11325</v>
+        <v>10772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28526</v>
+        <v>27585</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02673114597824772</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01656110619806514</v>
+        <v>0.01575211799583343</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04171492166321193</v>
+        <v>0.04033882182960442</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -1929,19 +1929,19 @@
         <v>29453</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20029</v>
+        <v>19819</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41195</v>
+        <v>42410</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02161952269855037</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01470157385520093</v>
+        <v>0.01454793532408435</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03023797022989822</v>
+        <v>0.03112976506012062</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>23921</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15646</v>
+        <v>15141</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35536</v>
+        <v>34853</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02538806161848403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01660556039494941</v>
+        <v>0.01606998643340089</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0377151148937817</v>
+        <v>0.03699004062599756</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2054,19 +2054,19 @@
         <v>31758</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21962</v>
+        <v>22445</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44561</v>
+        <v>44730</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03057743419395229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02114531769598834</v>
+        <v>0.02161035151655001</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0429047416194757</v>
+        <v>0.04306669246094357</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -2075,19 +2075,19 @@
         <v>55679</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42490</v>
+        <v>41932</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71001</v>
+        <v>71091</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02810900864094513</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02145055204678631</v>
+        <v>0.02116874773675269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.035844087406559</v>
+        <v>0.03588936720466528</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>91458</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74527</v>
+        <v>76333</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>110516</v>
+        <v>112412</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09706650437615254</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07909736341274427</v>
+        <v>0.08101393597357334</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1172931330208141</v>
+        <v>0.1193049719666962</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>82</v>
@@ -2125,19 +2125,19 @@
         <v>88421</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70345</v>
+        <v>71223</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>109238</v>
+        <v>108617</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08513355724581705</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06772987005382163</v>
+        <v>0.06857565131686157</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1051769401866362</v>
+        <v>0.1045786944462249</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>178</v>
@@ -2146,19 +2146,19 @@
         <v>179879</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>156447</v>
+        <v>155535</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>205769</v>
+        <v>207430</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09080969461904191</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07898031114024084</v>
+        <v>0.07852008350180797</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1038801535221954</v>
+        <v>0.1047184277427765</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>448626</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>420668</v>
+        <v>418021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>479616</v>
+        <v>479572</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4761358823528685</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4464638491015824</v>
+        <v>0.4436542142277023</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.509026284243052</v>
+        <v>0.5089793352451328</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>517</v>
@@ -2196,19 +2196,19 @@
         <v>536243</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>504524</v>
+        <v>502842</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>570232</v>
+        <v>566328</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5163069790797437</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4857677925109544</v>
+        <v>0.4841478928797401</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5490323674139662</v>
+        <v>0.5452743429669794</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>987</v>
@@ -2217,19 +2217,19 @@
         <v>984868</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>939235</v>
+        <v>941013</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1027817</v>
+        <v>1026151</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4971988190448105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4741615874210542</v>
+        <v>0.4750590086946193</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5188809995536887</v>
+        <v>0.5180400616141456</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>351160</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>320752</v>
+        <v>321951</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>379669</v>
+        <v>381615</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3726929653035371</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3404211137110472</v>
+        <v>0.3416933101638615</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4029509072131345</v>
+        <v>0.4050157470968065</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>345</v>
@@ -2267,19 +2267,19 @@
         <v>359129</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>327410</v>
+        <v>330571</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>389980</v>
+        <v>390286</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3457779569546775</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3152378198583145</v>
+        <v>0.3182814016231619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3754819610570817</v>
+        <v>0.3757767804608336</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>718</v>
@@ -2288,19 +2288,19 @@
         <v>710289</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>671497</v>
+        <v>669619</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>755430</v>
+        <v>752236</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3585806018604985</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3389969781481172</v>
+        <v>0.3380490108687131</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3813694791976562</v>
+        <v>0.3797573479458116</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>27057</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18776</v>
+        <v>18741</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37832</v>
+        <v>37834</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02871658634895785</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01992761242282011</v>
+        <v>0.01989001423846006</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04015168719844606</v>
+        <v>0.04015404234120241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2338,19 +2338,19 @@
         <v>23061</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15096</v>
+        <v>15060</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34608</v>
+        <v>34290</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02220407252580947</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01453452257333364</v>
+        <v>0.01449985735425724</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03332097561113002</v>
+        <v>0.0330148862409429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>54</v>
@@ -2359,19 +2359,19 @@
         <v>50119</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38400</v>
+        <v>38302</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>65502</v>
+        <v>64474</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02530187583470395</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01938575475130556</v>
+        <v>0.01933634437390356</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03306808386463041</v>
+        <v>0.03254882100806156</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>51911</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>39037</v>
+        <v>37643</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>68472</v>
+        <v>68315</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01584734574941803</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01191726442446997</v>
+        <v>0.01149161016342102</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02090317902822314</v>
+        <v>0.02085513244490594</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>58</v>
@@ -2484,19 +2484,19 @@
         <v>60318</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>47271</v>
+        <v>46006</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>77297</v>
+        <v>77131</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01786067506567341</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0139972618678741</v>
+        <v>0.01362282098428767</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02288835510466079</v>
+        <v>0.02283927043984476</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>109</v>
@@ -2505,19 +2505,19 @@
         <v>112229</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>93791</v>
+        <v>90767</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>136483</v>
+        <v>133950</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01686936396392263</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01409786119599986</v>
+        <v>0.01364343268477583</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02051499133020116</v>
+        <v>0.02013434686360772</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>286178</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>254690</v>
+        <v>258549</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>318929</v>
+        <v>321736</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08736450989330419</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07775184364621651</v>
+        <v>0.07892999155717424</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09736284358319373</v>
+        <v>0.09821966027920076</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>239</v>
@@ -2555,19 +2555,19 @@
         <v>245620</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>215320</v>
+        <v>214161</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>278317</v>
+        <v>275870</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07273013074753754</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06375801291122163</v>
+        <v>0.06341470763790923</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08241192725602278</v>
+        <v>0.08168737625759134</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>525</v>
@@ -2576,19 +2576,19 @@
         <v>531798</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>488727</v>
+        <v>487217</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>578905</v>
+        <v>577106</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07993571922096761</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07346163511457601</v>
+        <v>0.0732346391929697</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08701645400942626</v>
+        <v>0.08674613825890001</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1627987</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1565253</v>
+        <v>1570884</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1682502</v>
+        <v>1688546</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4969927473070286</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4778413053036529</v>
+        <v>0.4795604057067101</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.513635109445832</v>
+        <v>0.5154804084198057</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1789</v>
@@ -2626,19 +2626,19 @@
         <v>1831584</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1773174</v>
+        <v>1775815</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1891223</v>
+        <v>1892097</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5423472633773438</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5250515715930664</v>
+        <v>0.5258336284873716</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5600066663961318</v>
+        <v>0.5602654933590866</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3379</v>
@@ -2647,19 +2647,19 @@
         <v>3459572</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3373466</v>
+        <v>3375119</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3533278</v>
+        <v>3536650</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5200158767869671</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5070731192098067</v>
+        <v>0.5073215824681397</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.531094882562623</v>
+        <v>0.5316017223687479</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>1233830</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1177957</v>
+        <v>1180609</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1291934</v>
+        <v>1291375</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3766644918517888</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3596072849188576</v>
+        <v>0.3604171656776102</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3944024070289592</v>
+        <v>0.3942316964802675</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1127</v>
@@ -2697,19 +2697,19 @@
         <v>1155948</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1102286</v>
+        <v>1096686</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1215914</v>
+        <v>1210634</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3422857690315117</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3263961402719234</v>
+        <v>0.3247377032180112</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.360042217679895</v>
+        <v>0.3584788786897924</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2338</v>
@@ -2718,19 +2718,19 @@
         <v>2389779</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2313004</v>
+        <v>2315429</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2464563</v>
+        <v>2475920</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3592129598892594</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3476727167354242</v>
+        <v>0.3480372183141913</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3704539021998582</v>
+        <v>0.3721610612407266</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>75769</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59937</v>
+        <v>60009</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>94124</v>
+        <v>94449</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02313090519846038</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01829772799806634</v>
+        <v>0.01831969795633119</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02873437173406106</v>
+        <v>0.02883350476235349</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>82</v>
@@ -2768,19 +2768,19 @@
         <v>83673</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>68620</v>
+        <v>68060</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>103209</v>
+        <v>103210</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02477616177793356</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02031889311405933</v>
+        <v>0.02015311564697445</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03056098081269965</v>
+        <v>0.03056135823693596</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>157</v>
@@ -2789,19 +2789,19 @@
         <v>159442</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>134947</v>
+        <v>134651</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>185901</v>
+        <v>183558</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02396608013888321</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02028417487863406</v>
+        <v>0.02023962330641614</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02794323958271027</v>
+        <v>0.02759103606369397</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>10483</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5525</v>
+        <v>5539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17495</v>
+        <v>18869</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0149022001414116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007853763515772404</v>
+        <v>0.007873438976519593</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02486925940541809</v>
+        <v>0.02682281723815748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3154,19 +3154,19 @@
         <v>4178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1042</v>
+        <v>1842</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10765</v>
+        <v>10960</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006003032818989208</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001496880877511436</v>
+        <v>0.0026464625293936</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01546592914953636</v>
+        <v>0.01574653007459005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -3175,19 +3175,19 @@
         <v>14662</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8130</v>
+        <v>8183</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24086</v>
+        <v>23391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01047623670274902</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005809027573918091</v>
+        <v>0.005846845835634059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01721001768183142</v>
+        <v>0.01671376086009914</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>75535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60098</v>
+        <v>60196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91123</v>
+        <v>92699</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1073752283606876</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08543120836972838</v>
+        <v>0.08556988314362431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1295331758581379</v>
+        <v>0.1317738803045642</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -3225,19 +3225,19 @@
         <v>50923</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38167</v>
+        <v>37859</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67218</v>
+        <v>66939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07316171451837004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0548348821620711</v>
+        <v>0.0543916878153477</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09657256260684151</v>
+        <v>0.09617172370112179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -3246,19 +3246,19 @@
         <v>126459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105305</v>
+        <v>104990</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148987</v>
+        <v>151019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09035928115035308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07524411540996706</v>
+        <v>0.07501914578685767</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1064563018886203</v>
+        <v>0.1079088868244395</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>383134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>357240</v>
+        <v>355948</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>410706</v>
+        <v>408441</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5446353406246355</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5078258334236634</v>
+        <v>0.5059891101422103</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5838295688117991</v>
+        <v>0.5806096857014758</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>378</v>
@@ -3296,19 +3296,19 @@
         <v>403455</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>376587</v>
+        <v>374914</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>429242</v>
+        <v>427714</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5796431190950659</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5410423891568524</v>
+        <v>0.5386382444165885</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6166910498124001</v>
+        <v>0.6144956128157553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>744</v>
@@ -3317,19 +3317,19 @@
         <v>786589</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>751042</v>
+        <v>747125</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>826229</v>
+        <v>825101</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5620463120071522</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5366464563189947</v>
+        <v>0.5338476863444361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5903706003786904</v>
+        <v>0.5895643930905506</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>211037</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>186858</v>
+        <v>184879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>236962</v>
+        <v>235980</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2999946426296238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2656235592457961</v>
+        <v>0.2628098795247607</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3368481818046214</v>
+        <v>0.335451917194443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>204</v>
@@ -3367,19 +3367,19 @@
         <v>221668</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>195286</v>
+        <v>199925</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>246478</v>
+        <v>250395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.318470570336211</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2805672975459003</v>
+        <v>0.2872320634191628</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3541148173703089</v>
+        <v>0.3597415981480691</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>407</v>
@@ -3388,19 +3388,19 @@
         <v>432705</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>398814</v>
+        <v>398508</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>470355</v>
+        <v>469227</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3091835675663075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2849667373871184</v>
+        <v>0.2847481675668112</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3360856731029917</v>
+        <v>0.335279661853687</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>23280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15421</v>
+        <v>15056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35015</v>
+        <v>33899</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03309258824364156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02192121652135251</v>
+        <v>0.02140210740333397</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04977521680049764</v>
+        <v>0.04818814929667592</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3438,19 +3438,19 @@
         <v>15815</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9172</v>
+        <v>8617</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25354</v>
+        <v>25049</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02272156323136391</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01317672482191164</v>
+        <v>0.0123798086279761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03642554324060224</v>
+        <v>0.03598768010833983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -3459,19 +3459,19 @@
         <v>39095</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28126</v>
+        <v>28864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54069</v>
+        <v>54685</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02793460257343828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0200972307402697</v>
+        <v>0.02062456222007979</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03863421962604156</v>
+        <v>0.03907460870909835</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>11314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5894</v>
+        <v>5369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20801</v>
+        <v>22099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01115885528972782</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005813311922052799</v>
+        <v>0.005295099838383666</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02051503067501319</v>
+        <v>0.02179548812993801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3584,19 +3584,19 @@
         <v>7071</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3037</v>
+        <v>2988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14272</v>
+        <v>13609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006864254335066934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002947618915226513</v>
+        <v>0.002900911670559936</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01385390642723491</v>
+        <v>0.01320999250017284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3605,19 +3605,19 @@
         <v>18386</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12015</v>
+        <v>11111</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28516</v>
+        <v>28836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008994491973626895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005877862600754819</v>
+        <v>0.005435811586040172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01395023893406919</v>
+        <v>0.01410670230163949</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>90936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75317</v>
+        <v>74078</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>112967</v>
+        <v>111048</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0896864810033738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07428176990213717</v>
+        <v>0.07305970892247547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1114148204458815</v>
+        <v>0.1095220069386826</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -3655,19 +3655,19 @@
         <v>81742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63783</v>
+        <v>64989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101556</v>
+        <v>102999</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07934780054486539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06191462449215122</v>
+        <v>0.06308507251015502</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0985817237215058</v>
+        <v>0.09998255629927712</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -3676,19 +3676,19 @@
         <v>172678</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>149939</v>
+        <v>147365</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>202061</v>
+        <v>197748</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0844760642597646</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07335193854498835</v>
+        <v>0.07209247084831094</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09885055142974986</v>
+        <v>0.09674045326601394</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>523035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>490203</v>
+        <v>489000</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>555742</v>
+        <v>554884</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5158483143548872</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4834675487242787</v>
+        <v>0.4822812129669216</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5481066152921605</v>
+        <v>0.5472599794008078</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>480</v>
@@ -3726,19 +3726,19 @@
         <v>525135</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>491179</v>
+        <v>492178</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>557183</v>
+        <v>561064</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.509753253043187</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4767927089257422</v>
+        <v>0.4777623862161941</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5408633793729221</v>
+        <v>0.5446300526354605</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>965</v>
@@ -3747,19 +3747,19 @@
         <v>1048169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1001786</v>
+        <v>999247</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1098124</v>
+        <v>1096975</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.51277656746811</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4900855970288909</v>
+        <v>0.4888435710737093</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5372150841348502</v>
+        <v>0.5366530191580865</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>369988</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>338103</v>
+        <v>339880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>400061</v>
+        <v>405752</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.364904957174469</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3334579038925982</v>
+        <v>0.3352097927603943</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3945646036695047</v>
+        <v>0.4001775590991131</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>352</v>
@@ -3797,19 +3797,19 @@
         <v>387957</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>357041</v>
+        <v>354215</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>421054</v>
+        <v>422056</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3765937326916349</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.346583158816927</v>
+        <v>0.3438403659594951</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4087207633624254</v>
+        <v>0.4096941428098163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>687</v>
@@ -3818,19 +3818,19 @@
         <v>757945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>711302</v>
+        <v>709774</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>802419</v>
+        <v>804077</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3707957854974209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3479775514099734</v>
+        <v>0.3472298443958652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3925527162815275</v>
+        <v>0.3933641962905572</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>18658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10816</v>
+        <v>12010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28430</v>
+        <v>30228</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01840139217754212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01066748954762368</v>
+        <v>0.01184534947403961</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02803902544382746</v>
+        <v>0.02981267525162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -3868,19 +3868,19 @@
         <v>28269</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18759</v>
+        <v>19034</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41941</v>
+        <v>40660</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0274409593852458</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01820921620104586</v>
+        <v>0.01847692543494014</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0407121709678602</v>
+        <v>0.03946863153061124</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -3889,19 +3889,19 @@
         <v>46927</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34072</v>
+        <v>34827</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62458</v>
+        <v>63038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02295709080107759</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01666849557719334</v>
+        <v>0.01703799380178763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03055537939048222</v>
+        <v>0.03083905737993676</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>9762</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3344</v>
+        <v>4168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19765</v>
+        <v>21201</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01292128701915687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00442619054130804</v>
+        <v>0.005517193519752297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02616157392431166</v>
+        <v>0.02806136357958625</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4014,19 +4014,19 @@
         <v>15874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9261</v>
+        <v>9183</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26379</v>
+        <v>26175</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02047748817480745</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.011946928955888</v>
+        <v>0.01184653311322506</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03402922198938919</v>
+        <v>0.03376608622531015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -4035,19 +4035,19 @@
         <v>25636</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16231</v>
+        <v>16405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38487</v>
+        <v>37727</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01674796244892684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01060397601281023</v>
+        <v>0.01071757219336552</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02514349898976749</v>
+        <v>0.02464683949438631</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>67278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51863</v>
+        <v>53123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83955</v>
+        <v>84653</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08904959072125386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06864707740481339</v>
+        <v>0.07031372485682599</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1111240095990798</v>
+        <v>0.1120473677237094</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -4085,19 +4085,19 @@
         <v>50171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37120</v>
+        <v>37611</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65513</v>
+        <v>66236</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06472111165628114</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04788585939569554</v>
+        <v>0.04851916447481777</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08451309750735864</v>
+        <v>0.08544487319865227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>109</v>
@@ -4106,19 +4106,19 @@
         <v>117448</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>98603</v>
+        <v>97877</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>141392</v>
+        <v>141289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07672895616377053</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0644173805165859</v>
+        <v>0.06394271952703406</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09237137700016093</v>
+        <v>0.09230400713905985</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>383139</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>353229</v>
+        <v>354603</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>409329</v>
+        <v>411783</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.507128775077652</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4675386548798153</v>
+        <v>0.4693571803776972</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5417935379987338</v>
+        <v>0.545042383663601</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>384</v>
@@ -4156,19 +4156,19 @@
         <v>421465</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>390633</v>
+        <v>389385</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>450227</v>
+        <v>448641</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5436952095528159</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5039206456846316</v>
+        <v>0.5023111423250408</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5807978674774371</v>
+        <v>0.5787524988127681</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>736</v>
@@ -4177,19 +4177,19 @@
         <v>804604</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>763051</v>
+        <v>764283</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>844673</v>
+        <v>844965</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5256470587334231</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.498500344685</v>
+        <v>0.499305191211926</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5518241568758521</v>
+        <v>0.5520143570979105</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>272849</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>245570</v>
+        <v>244725</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>301297</v>
+        <v>299839</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3611462399529626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3250403197479551</v>
+        <v>0.3239212154259114</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3988014451443935</v>
+        <v>0.3968706030912504</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>242</v>
@@ -4227,19 +4227,19 @@
         <v>267646</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>241409</v>
+        <v>240540</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>295011</v>
+        <v>297223</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.345265870399908</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3114207276428707</v>
+        <v>0.3102998828082866</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3805674456324345</v>
+        <v>0.3834206150132158</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>487</v>
@@ -4248,19 +4248,19 @@
         <v>540494</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>503316</v>
+        <v>502840</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>580342</v>
+        <v>576571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3531039686141567</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3288154949713426</v>
+        <v>0.3285051033502311</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3791365348068313</v>
+        <v>0.3766729359785648</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>22479</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14457</v>
+        <v>14284</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33667</v>
+        <v>33210</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02975410722897474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01913567958032808</v>
+        <v>0.01890679596309882</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04456209923700483</v>
+        <v>0.04395733567426986</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -4298,19 +4298,19 @@
         <v>20031</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11539</v>
+        <v>11711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32410</v>
+        <v>31890</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0258403202161874</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01488541035747604</v>
+        <v>0.01510780685427982</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04180915808610261</v>
+        <v>0.04113794253987559</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -4319,19 +4319,19 @@
         <v>42510</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31007</v>
+        <v>30498</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57461</v>
+        <v>58516</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02777205403972284</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02025705081462203</v>
+        <v>0.01992406205188823</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03753890114512739</v>
+        <v>0.03822865819425743</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>17526</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10626</v>
+        <v>9816</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29327</v>
+        <v>27467</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01851126577470607</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01122334304211272</v>
+        <v>0.01036758924365063</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03097652400421382</v>
+        <v>0.0290120802071902</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4444,19 +4444,19 @@
         <v>18923</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11892</v>
+        <v>11807</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28987</v>
+        <v>28557</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01805655217240658</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01134763029208925</v>
+        <v>0.01126594847287231</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02765980119249558</v>
+        <v>0.02724980566477869</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -4465,19 +4465,19 @@
         <v>36449</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24834</v>
+        <v>25794</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49691</v>
+        <v>50253</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01827237091154155</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01244963972758156</v>
+        <v>0.0129312054124513</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02491089097826855</v>
+        <v>0.02519265626215154</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>93092</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>75388</v>
+        <v>73977</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>112298</v>
+        <v>112122</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09832803389341828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07962781992014409</v>
+        <v>0.07813813161337459</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1186144060533318</v>
+        <v>0.1184279402970511</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>75</v>
@@ -4515,19 +4515,19 @@
         <v>77330</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60949</v>
+        <v>60143</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>94070</v>
+        <v>96477</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07378965939681807</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05815853798301214</v>
+        <v>0.05738934097980296</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08976301807525794</v>
+        <v>0.09205942001858482</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>163</v>
@@ -4536,19 +4536,19 @@
         <v>170422</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>148217</v>
+        <v>147723</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>197954</v>
+        <v>196023</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08543620134651304</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07430436163967817</v>
+        <v>0.07405637561195018</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09923819968747706</v>
+        <v>0.09827038586000511</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>490984</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>459229</v>
+        <v>458130</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>525130</v>
+        <v>523893</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5185978998408112</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4850573879672136</v>
+        <v>0.483896602859966</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5546645369464765</v>
+        <v>0.5533580913744304</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>479</v>
@@ -4586,19 +4586,19 @@
         <v>501774</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>470624</v>
+        <v>470673</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>535799</v>
+        <v>538730</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4788002281108083</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4490765097635494</v>
+        <v>0.4491230567957658</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5112669396217072</v>
+        <v>0.5140641056176549</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>956</v>
@@ -4607,19 +4607,19 @@
         <v>992758</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>945272</v>
+        <v>943379</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1038689</v>
+        <v>1031929</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4976892239311259</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4738838086606173</v>
+        <v>0.4729346029459071</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5207157907739615</v>
+        <v>0.5173264149795646</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>315490</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>284645</v>
+        <v>287684</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>341278</v>
+        <v>342816</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3332342702864031</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3006546587033666</v>
+        <v>0.3038646021852855</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3604727423863309</v>
+        <v>0.3620968934997173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>392</v>
@@ -4657,19 +4657,19 @@
         <v>413106</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>380053</v>
+        <v>380518</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>445784</v>
+        <v>445603</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3941914932494329</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.362652484003239</v>
+        <v>0.363095830146244</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4253737767540325</v>
+        <v>0.42520120773595</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>694</v>
@@ -4678,19 +4678,19 @@
         <v>728596</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>681307</v>
+        <v>689061</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>769485</v>
+        <v>778147</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3652596316677214</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.341552606322582</v>
+        <v>0.3454399512770474</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3857582630869852</v>
+        <v>0.3901003924092084</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>29660</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19480</v>
+        <v>18673</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>43054</v>
+        <v>43017</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03132853020466132</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02057600363108465</v>
+        <v>0.01972316863214204</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04547519808885134</v>
+        <v>0.04543603692483473</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -4728,19 +4728,19 @@
         <v>36849</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26402</v>
+        <v>25556</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51127</v>
+        <v>49609</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03516206707053415</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02519322540778701</v>
+        <v>0.02438615679858189</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04878627543977819</v>
+        <v>0.04733811755533934</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>61</v>
@@ -4749,19 +4749,19 @@
         <v>66510</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50810</v>
+        <v>52193</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>84016</v>
+        <v>85477</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0333425721430981</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02547193494460685</v>
+        <v>0.02616552258886071</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04211882063330069</v>
+        <v>0.04285114990868619</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>49085</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36842</v>
+        <v>35373</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>64844</v>
+        <v>67201</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01435384249903764</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01077366585964429</v>
+        <v>0.01034405389209278</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01896216345051411</v>
+        <v>0.01965139504176087</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -4874,19 +4874,19 @@
         <v>46047</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>32400</v>
+        <v>34741</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>59687</v>
+        <v>62740</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01297311499606876</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009128335098769428</v>
+        <v>0.009787890480735412</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01681610253701142</v>
+        <v>0.01767637575087857</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>88</v>
@@ -4895,19 +4895,19 @@
         <v>95132</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>77524</v>
+        <v>75388</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116551</v>
+        <v>116554</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01365062810487831</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01112403607845946</v>
+        <v>0.01081762146168324</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01672406987517381</v>
+        <v>0.01672460933593853</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>326841</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>289911</v>
+        <v>290775</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>359540</v>
+        <v>363090</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09557704525412968</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08477792157690169</v>
+        <v>0.08503031128061581</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1051392095651348</v>
+        <v>0.1061773852231035</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>243</v>
@@ -4945,19 +4945,19 @@
         <v>260167</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>231657</v>
+        <v>229238</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>294280</v>
+        <v>294543</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07329913951026096</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0652668163500683</v>
+        <v>0.06458534536151758</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08291011477750307</v>
+        <v>0.08298419451569294</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>549</v>
@@ -4966,19 +4966,19 @@
         <v>587007</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>538851</v>
+        <v>540455</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>636536</v>
+        <v>635691</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08423074849598766</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07732063155224403</v>
+        <v>0.07755078693491504</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09133763336457348</v>
+        <v>0.0912164954275327</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>1780291</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1717957</v>
+        <v>1727231</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1839322</v>
+        <v>1843080</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5206050133886745</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5023769289393248</v>
+        <v>0.5050889440039725</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5378672361005774</v>
+        <v>0.5389662769687268</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1721</v>
@@ -5016,19 +5016,19 @@
         <v>1851828</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1792450</v>
+        <v>1791535</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1912315</v>
+        <v>1911056</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5217325970274397</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5050035292872325</v>
+        <v>0.5047456100081269</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5387741844074574</v>
+        <v>0.5384193437392635</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3401</v>
@@ -5037,19 +5037,19 @@
         <v>3632119</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3549355</v>
+        <v>3544785</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3712199</v>
+        <v>3717480</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5211792998019553</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5093033111738903</v>
+        <v>0.5086476028412343</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.53267005585288</v>
+        <v>0.5334278746945962</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>1169364</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1110988</v>
+        <v>1106786</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1230336</v>
+        <v>1223344</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3419534207075534</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3248826803383123</v>
+        <v>0.3236541335548588</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3597834540130954</v>
+        <v>0.3577387881056608</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1190</v>
@@ -5087,19 +5087,19 @@
         <v>1290376</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1234773</v>
+        <v>1235454</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1350655</v>
+        <v>1352737</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3635495352610192</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3478840467093093</v>
+        <v>0.3480756882173922</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3805324345336912</v>
+        <v>0.3811189188844435</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2275</v>
@@ -5108,19 +5108,19 @@
         <v>2459740</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2378464</v>
+        <v>2379275</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2543748</v>
+        <v>2547506</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3529524763352975</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3412900677774935</v>
+        <v>0.3414063826181869</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.365006999476959</v>
+        <v>0.3655462290262589</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>94077</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>76278</v>
+        <v>73739</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>115735</v>
+        <v>115925</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02751067815060487</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02230587306060556</v>
+        <v>0.0215633738595142</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03384393091724246</v>
+        <v>0.0338994435752212</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>92</v>
@@ -5158,19 +5158,19 @@
         <v>100964</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>81419</v>
+        <v>82041</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>123677</v>
+        <v>124529</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02844561320521137</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0229389745645813</v>
+        <v>0.02311409850135005</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03484472991829077</v>
+        <v>0.0350847522989565</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>179</v>
@@ -5179,19 +5179,19 @@
         <v>195041</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>170330</v>
+        <v>166026</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>225464</v>
+        <v>223674</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02798684726188116</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02444091806212296</v>
+        <v>0.02382329810638692</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03235226144538581</v>
+        <v>0.03209543361014519</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>13106</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7480</v>
+        <v>7157</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22176</v>
+        <v>21565</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01948352002683695</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01112005208496697</v>
+        <v>0.01064043365199372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03296688932311728</v>
+        <v>0.03205905040043711</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5544,19 +5544,19 @@
         <v>8537</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3805</v>
+        <v>4019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15204</v>
+        <v>15500</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01270449987020841</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005663044185105868</v>
+        <v>0.005980677965805149</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02262678739256721</v>
+        <v>0.02306681468933476</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -5565,19 +5565,19 @@
         <v>21643</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14154</v>
+        <v>14185</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32532</v>
+        <v>31670</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01609578726301884</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0105260149244883</v>
+        <v>0.01054965837285093</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02419447968305843</v>
+        <v>0.02355289661311455</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>62300</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49623</v>
+        <v>48003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80649</v>
+        <v>81058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09261741014237453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07377123131534809</v>
+        <v>0.07136273769488191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1198943986611065</v>
+        <v>0.120502950566463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -5615,19 +5615,19 @@
         <v>60495</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46163</v>
+        <v>46999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78236</v>
+        <v>75937</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09002818197570438</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06869980022328645</v>
+        <v>0.06994362970955871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1164294529618304</v>
+        <v>0.1130084671988518</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -5636,19 +5636,19 @@
         <v>122795</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103424</v>
+        <v>103754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147405</v>
+        <v>146266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09132347489943941</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07691685165134722</v>
+        <v>0.07716203249145638</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1096258253360315</v>
+        <v>0.1087784515494106</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>419013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>393544</v>
+        <v>390493</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>445893</v>
+        <v>443395</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6229171745346428</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5850539205102148</v>
+        <v>0.5805173383921751</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6628767489174229</v>
+        <v>0.6591632563867409</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>406</v>
@@ -5686,19 +5686,19 @@
         <v>408965</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>381571</v>
+        <v>384342</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>434045</v>
+        <v>434477</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6086171339311598</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5678501932300996</v>
+        <v>0.5719731016273634</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6459410622630334</v>
+        <v>0.6465842726599281</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>815</v>
@@ -5707,19 +5707,19 @@
         <v>827978</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>792323</v>
+        <v>791125</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>863950</v>
+        <v>860772</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6157709033985437</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5892535931484836</v>
+        <v>0.5883627707592232</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6425230353185521</v>
+        <v>0.6401592900353941</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>171726</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>146759</v>
+        <v>149957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>193301</v>
+        <v>195812</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2552932300674455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.218176811942705</v>
+        <v>0.2229299515806733</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2873668290974676</v>
+        <v>0.2911001111550531</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>181</v>
@@ -5757,19 +5757,19 @@
         <v>184599</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165114</v>
+        <v>162992</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>211213</v>
+        <v>210147</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2747185914498297</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2457211429875975</v>
+        <v>0.2425632754904231</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3143240189549317</v>
+        <v>0.3127378949032414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>344</v>
@@ -5778,19 +5778,19 @@
         <v>356326</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>323800</v>
+        <v>325574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>386208</v>
+        <v>390631</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2650008178432043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2408115507059029</v>
+        <v>0.2421307920522114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2872244857471792</v>
+        <v>0.290513485486802</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>6517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2056</v>
+        <v>2761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13491</v>
+        <v>13584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009688665228700313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003056307458958976</v>
+        <v>0.004104284114993759</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02005670292288253</v>
+        <v>0.02019427355680758</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -5828,19 +5828,19 @@
         <v>9361</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4801</v>
+        <v>4721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18308</v>
+        <v>18132</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01393159277309768</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007145001421112377</v>
+        <v>0.007025894801605297</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02724582100503822</v>
+        <v>0.02698402530211011</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -5849,19 +5849,19 @@
         <v>15879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9157</v>
+        <v>9465</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25969</v>
+        <v>26955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01180901659579375</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00681029745592288</v>
+        <v>0.0070392722431215</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01931310803831194</v>
+        <v>0.02004664024909856</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>13925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7631</v>
+        <v>8069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23847</v>
+        <v>24382</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01363236790138357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007470450179161221</v>
+        <v>0.007899873804384606</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02334572786478859</v>
+        <v>0.0238702415489268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -5974,19 +5974,19 @@
         <v>18195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10362</v>
+        <v>11133</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28196</v>
+        <v>29570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01746233658126673</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00994527844597003</v>
+        <v>0.0106850262506319</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02706141755149034</v>
+        <v>0.02838017526277084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -5995,19 +5995,19 @@
         <v>32119</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22033</v>
+        <v>21622</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46132</v>
+        <v>45653</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01556635677375521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01067801962586602</v>
+        <v>0.01047905420261864</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02235745418472717</v>
+        <v>0.02212524105738172</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>75537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60965</v>
+        <v>58735</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95042</v>
+        <v>92246</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07395039760358074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05968431501795304</v>
+        <v>0.05750125753791048</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09304581650088653</v>
+        <v>0.09030843867962984</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -6045,19 +6045,19 @@
         <v>69895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53913</v>
+        <v>55364</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87386</v>
+        <v>88806</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06708206050416089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05174313517589497</v>
+        <v>0.05313573324529935</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08386966944966877</v>
+        <v>0.08523241586105246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -6066,19 +6066,19 @@
         <v>145432</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>121804</v>
+        <v>122345</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>171157</v>
+        <v>170800</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07048214795659394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05903102129734591</v>
+        <v>0.05929334918904219</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08294943829072704</v>
+        <v>0.08277673327632608</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>633602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>602035</v>
+        <v>599869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>663374</v>
+        <v>663880</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6202933029391693</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.589389585065317</v>
+        <v>0.5872690042605752</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6494405518707493</v>
+        <v>0.6499356703742264</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>614</v>
@@ -6116,19 +6116,19 @@
         <v>655508</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>626088</v>
+        <v>622780</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>690656</v>
+        <v>685131</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6291273483360502</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6008914697678428</v>
+        <v>0.5977162130319773</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6628607118187038</v>
+        <v>0.6575586450988194</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1206</v>
@@ -6137,19 +6137,19 @@
         <v>1289110</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1240548</v>
+        <v>1245120</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1333524</v>
+        <v>1333302</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6247541606963964</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6012192569290953</v>
+        <v>0.6034347964566437</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.646279376229292</v>
+        <v>0.6461717997059782</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>289450</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>260153</v>
+        <v>258083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>319503</v>
+        <v>317587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.28337007690132</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2546886086110922</v>
+        <v>0.252662159778869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.312792180629184</v>
+        <v>0.3109159532613019</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>260</v>
@@ -6187,19 +6187,19 @@
         <v>280227</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>248704</v>
+        <v>253582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>307400</v>
+        <v>307134</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2689496085167501</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2386949379873199</v>
+        <v>0.2433765366932253</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2950286356721199</v>
+        <v>0.294773402351551</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>528</v>
@@ -6208,19 +6208,19 @@
         <v>569677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>527967</v>
+        <v>525700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>617653</v>
+        <v>610410</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2760882874870536</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2558741154641305</v>
+        <v>0.2547750929022228</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2993395475225296</v>
+        <v>0.2958290200325299</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>8942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3727</v>
+        <v>3644</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17893</v>
+        <v>18060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008753854654546381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003648686077247496</v>
+        <v>0.003567088278924447</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0175169122204123</v>
+        <v>0.01768103869458645</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -6258,19 +6258,19 @@
         <v>18107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10799</v>
+        <v>10976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28624</v>
+        <v>27644</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01737864606177204</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01036407351303295</v>
+        <v>0.01053388303274873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02747224604064662</v>
+        <v>0.02653120927667467</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -6279,19 +6279,19 @@
         <v>27049</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17707</v>
+        <v>18045</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39189</v>
+        <v>40399</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01310904708620089</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008581699911254065</v>
+        <v>0.008745508181255465</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01899257588082977</v>
+        <v>0.01957889546901724</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>10804</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19804</v>
+        <v>19501</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01426411775370698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006376985962996374</v>
+        <v>0.006373560169878442</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02614592948385544</v>
+        <v>0.02574495819216525</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6404,19 +6404,19 @@
         <v>7879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3327</v>
+        <v>3153</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16185</v>
+        <v>15255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01007752095486231</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004256037219347426</v>
+        <v>0.00403293456049118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02070091793874262</v>
+        <v>0.01951154009365781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -6425,19 +6425,19 @@
         <v>18683</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10998</v>
+        <v>10686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30371</v>
+        <v>30290</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0121376646999471</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007144810683476495</v>
+        <v>0.006942358325373935</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01973091345648666</v>
+        <v>0.01967808498506822</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>101815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83098</v>
+        <v>84220</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122036</v>
+        <v>122827</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1344184698472362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.109707299328136</v>
+        <v>0.1111891053311716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1611141114290651</v>
+        <v>0.1621585224305615</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -6475,19 +6475,19 @@
         <v>87990</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>70235</v>
+        <v>70767</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105471</v>
+        <v>107578</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1125441194890227</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08983470365255949</v>
+        <v>0.09051392277910854</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1349027656564231</v>
+        <v>0.1375982631781551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>173</v>
@@ -6496,19 +6496,19 @@
         <v>189806</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>163371</v>
+        <v>163327</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218888</v>
+        <v>217232</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1233080664926374</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1061346694234303</v>
+        <v>0.1061061245692868</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1422014241543283</v>
+        <v>0.1411253757276071</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>412689</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>384482</v>
+        <v>382754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>442493</v>
+        <v>440768</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5448393949345217</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5075999154098045</v>
+        <v>0.5053189755287738</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5841872855945146</v>
+        <v>0.5819109607734361</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>409</v>
@@ -6546,19 +6546,19 @@
         <v>429818</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>402362</v>
+        <v>400530</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>458662</v>
+        <v>459765</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5497587022129382</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5146408783722793</v>
+        <v>0.5122975183087799</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5866518457339733</v>
+        <v>0.5880622744761564</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>788</v>
@@ -6567,19 +6567,19 @@
         <v>842507</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>798859</v>
+        <v>803097</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>880067</v>
+        <v>885374</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5473380057363688</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5189816819419467</v>
+        <v>0.5217350164310383</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5717387323408606</v>
+        <v>0.5751867997850825</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>215108</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>189044</v>
+        <v>190681</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>241474</v>
+        <v>240504</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2839894685007804</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2495798662611858</v>
+        <v>0.2517413219981563</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3187986753739601</v>
+        <v>0.3175184162086015</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>215</v>
@@ -6617,19 +6617,19 @@
         <v>235591</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>209780</v>
+        <v>207823</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>260059</v>
+        <v>259487</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3013332213500383</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2683188338719133</v>
+        <v>0.2658155434562987</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3326283715153204</v>
+        <v>0.3318971525972629</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>416</v>
@@ -6638,19 +6638,19 @@
         <v>450699</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>416315</v>
+        <v>415739</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>488434</v>
+        <v>486848</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2927986942232427</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2704608026058892</v>
+        <v>0.2700865523974677</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3173131343011812</v>
+        <v>0.3162827009526127</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>17034</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10079</v>
+        <v>9692</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27314</v>
+        <v>27807</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02248854896375459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01330663286037861</v>
+        <v>0.01279601367435735</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03606061706757951</v>
+        <v>0.03671076010800155</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -6688,19 +6688,19 @@
         <v>20552</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12466</v>
+        <v>12938</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30950</v>
+        <v>32876</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02628643599313857</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01594517172438798</v>
+        <v>0.01654873663155622</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03958659523892136</v>
+        <v>0.04205016659215562</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -6709,19 +6709,19 @@
         <v>37585</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25653</v>
+        <v>26677</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50982</v>
+        <v>52411</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02441756884780391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01666576374807269</v>
+        <v>0.01733079430213131</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03312095254723951</v>
+        <v>0.03404904587559898</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>15922</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9824</v>
+        <v>9867</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25451</v>
+        <v>25576</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0170450606264523</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01051701092842014</v>
+        <v>0.01056344002859679</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02724696593546642</v>
+        <v>0.02738006732310505</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -6834,19 +6834,19 @@
         <v>19826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12364</v>
+        <v>12342</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30312</v>
+        <v>30371</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01903159932453738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01186841326526336</v>
+        <v>0.01184779436790161</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0290974079230623</v>
+        <v>0.02915448784876648</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -6855,19 +6855,19 @@
         <v>35747</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24616</v>
+        <v>25433</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48487</v>
+        <v>48970</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01809243638866407</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01245856067989197</v>
+        <v>0.01287203942253646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02454038803832388</v>
+        <v>0.02478483706908834</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>88629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>71930</v>
+        <v>72474</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>108566</v>
+        <v>107299</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09488180823120096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07700526316187571</v>
+        <v>0.07758673392025855</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1162253870646132</v>
+        <v>0.114868937745044</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -6905,19 +6905,19 @@
         <v>86979</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70877</v>
+        <v>71184</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>105509</v>
+        <v>106955</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08349462985451675</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06803815540586511</v>
+        <v>0.06833231016770795</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1012829310426779</v>
+        <v>0.1026705317083762</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>168</v>
@@ -6926,19 +6926,19 @@
         <v>175607</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>150342</v>
+        <v>151873</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>202322</v>
+        <v>202482</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08887807186139468</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07609098405710076</v>
+        <v>0.07686565470014678</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1023987225004528</v>
+        <v>0.1024797739492934</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>589549</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>561427</v>
+        <v>558807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>618730</v>
+        <v>617300</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6311436268688349</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6010372432705193</v>
+        <v>0.5982321037239123</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.662383497173883</v>
+        <v>0.660852250338467</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>582</v>
@@ -6976,19 +6976,19 @@
         <v>627394</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>596784</v>
+        <v>592053</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>662640</v>
+        <v>658254</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6022639894343907</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5728800659966403</v>
+        <v>0.5683384899009184</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6360986389866106</v>
+        <v>0.6318882778496123</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1175</v>
@@ -6997,19 +6997,19 @@
         <v>1216943</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1171885</v>
+        <v>1176749</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1263137</v>
+        <v>1263593</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6159172271518508</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5931126290954358</v>
+        <v>0.5955741606097914</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6392968475500899</v>
+        <v>0.6395279151310136</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>232358</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>207259</v>
+        <v>205685</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>260233</v>
+        <v>257707</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.248751921486958</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2218820510224243</v>
+        <v>0.2201968762625185</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.278593399333855</v>
+        <v>0.2758892315625929</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>262</v>
@@ -7047,19 +7047,19 @@
         <v>292667</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>260911</v>
+        <v>262369</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>323417</v>
+        <v>321198</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2809445788968623</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.250460498757844</v>
+        <v>0.2518600355172494</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3104624135667863</v>
+        <v>0.3083328656372886</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>488</v>
@@ -7068,19 +7068,19 @@
         <v>525025</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>483622</v>
+        <v>486417</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>565744</v>
+        <v>564063</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2657250663468206</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2447701949965593</v>
+        <v>0.2461845400172939</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2863335477418231</v>
+        <v>0.2854824610338806</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>7639</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2965</v>
+        <v>3652</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15678</v>
+        <v>15178</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008177582786553859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003174570127387435</v>
+        <v>0.003909644908548824</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01678456342457093</v>
+        <v>0.0162491374512163</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -7118,19 +7118,19 @@
         <v>14860</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8455</v>
+        <v>8166</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25562</v>
+        <v>24650</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01426520248969284</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008115975365787401</v>
+        <v>0.007838696105190094</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02453772585019567</v>
+        <v>0.02366310878943289</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -7139,19 +7139,19 @@
         <v>22499</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12777</v>
+        <v>13043</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>35390</v>
+        <v>33562</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01138719825126982</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006466497831190438</v>
+        <v>0.006601332489185784</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01791174043802126</v>
+        <v>0.0169862264600301</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>53757</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>39536</v>
+        <v>41182</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>69868</v>
+        <v>70900</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01587776393432325</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0116773628710128</v>
+        <v>0.01216368711083882</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0206364078616896</v>
+        <v>0.02094133791487726</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>52</v>
@@ -7264,19 +7264,19 @@
         <v>54436</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40344</v>
+        <v>41010</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70324</v>
+        <v>70782</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01538852475939301</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01140494443841339</v>
+        <v>0.01159297409766708</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01987982468652803</v>
+        <v>0.02000925433739781</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>103</v>
@@ -7285,19 +7285,19 @@
         <v>108193</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>87535</v>
+        <v>88607</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>130358</v>
+        <v>130935</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01562778134650779</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01264384220612657</v>
+        <v>0.01279865467733827</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01882941795038299</v>
+        <v>0.01891279565213444</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>328281</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>293780</v>
+        <v>291618</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>365211</v>
+        <v>365341</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09696216560731205</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08677160892722954</v>
+        <v>0.08613319671736824</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1078697058688885</v>
+        <v>0.1079082363370908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>291</v>
@@ -7335,19 +7335,19 @@
         <v>305359</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>273074</v>
+        <v>273172</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>339590</v>
+        <v>337128</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08632188437750651</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07719523513268464</v>
+        <v>0.07722308046876444</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0959985558145007</v>
+        <v>0.09530256317066989</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>597</v>
@@ -7356,19 +7356,19 @@
         <v>633640</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>587087</v>
+        <v>584541</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>686553</v>
+        <v>684832</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09152538708831806</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08480099613411603</v>
+        <v>0.08443333460136911</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09916827609493507</v>
+        <v>0.09891970593803884</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>2054853</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1997061</v>
+        <v>1998474</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2110280</v>
+        <v>2113901</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6069274331822382</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5898577420320962</v>
+        <v>0.5902751966539808</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6232985276906011</v>
+        <v>0.6243678875495183</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2011</v>
@@ -7406,19 +7406,19 @@
         <v>2121685</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2060557</v>
+        <v>2058860</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2180966</v>
+        <v>2174854</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5997787560273122</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5824985293582228</v>
+        <v>0.5820186910486405</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.616536897645181</v>
+        <v>0.6148090046046939</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3984</v>
@@ -7427,19 +7427,19 @@
         <v>4176538</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4093651</v>
+        <v>4097509</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4255477</v>
+        <v>4257705</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6032747313827544</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5913022467701211</v>
+        <v>0.5918595512096855</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6146769787261509</v>
+        <v>0.6149988635639756</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>908642</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>859167</v>
+        <v>857197</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>968673</v>
+        <v>959669</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2683792827093047</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2537660878032029</v>
+        <v>0.2531843543019898</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2861099964316177</v>
+        <v>0.283450536397086</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>918</v>
@@ -7477,19 +7477,19 @@
         <v>993085</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>934239</v>
+        <v>940299</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1042764</v>
+        <v>1052716</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2807350803666844</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2640999199274358</v>
+        <v>0.2658130489526658</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2947786788419052</v>
+        <v>0.297592193030402</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1776</v>
@@ -7498,19 +7498,19 @@
         <v>1901728</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1826842</v>
+        <v>1826627</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1976792</v>
+        <v>1977237</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2746926247947099</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2638758171318439</v>
+        <v>0.2638447718826035</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2855351615855779</v>
+        <v>0.2855995498402844</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>40131</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28133</v>
+        <v>27934</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>55111</v>
+        <v>55858</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01185335456682174</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008309549539482632</v>
+        <v>0.008250756796826218</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01627763852009196</v>
+        <v>0.01649828347716716</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>59</v>
@@ -7548,19 +7548,19 @@
         <v>62881</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>46714</v>
+        <v>47563</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>77914</v>
+        <v>80057</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01777575446910377</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01320550123586512</v>
+        <v>0.01344550965712967</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02202540541906209</v>
+        <v>0.02263134424832777</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>94</v>
@@ -7569,19 +7569,19 @@
         <v>103012</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>81877</v>
+        <v>85268</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>124029</v>
+        <v>127268</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01487947538770981</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01182668969091667</v>
+        <v>0.01231637814306213</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01791521142235279</v>
+        <v>0.0183830611634386</v>
       </c>
     </row>
     <row r="33">
